--- a/LoopGame/LoopGame/Content/csv/Stage04.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage04.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\Loop\LoopGame\LoopGame\Content\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K018A1442\Documents\LoopGame\LoopGame\LoopGame\Content\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11810" windowHeight="8060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="8064"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage03" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage04" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestStage03!$A$1:$P$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Stage04!$A$1:$P$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -390,15 +390,15 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16" width="3.08203125" customWidth="1"/>
+    <col min="1" max="16" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -448,357 +448,357 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
